--- a/src/diglo_data.xlsx
+++ b/src/diglo_data.xlsx
@@ -38,13 +38,13 @@
     <t>MainPhoto</t>
   </si>
   <si>
-    <t>Municipio</t>
+    <t>Ciudad</t>
   </si>
   <si>
     <t>Provincia</t>
   </si>
   <si>
-    <t>ImagesSources</t>
+    <t>ImageSources</t>
   </si>
   <si>
     <t>GARAJE, C/ MARACAIBO 7, PL BJ PZ 230, RES. TAYMAR - CHICLANA</t>
@@ -24250,10 +24250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -24268,6 +24268,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24294,7 +24301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24316,8 +24323,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24325,7 +24333,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24371,15 +24387,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24394,14 +24402,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -24409,7 +24409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24424,7 +24424,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24436,13 +24478,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24454,43 +24574,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24502,109 +24598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24633,11 +24633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -24652,6 +24658,32 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -24690,56 +24722,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -24751,130 +24751,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -25232,12 +25232,12 @@
   <dimension ref="A1:J1410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="30.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="31.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>

--- a/src/diglo_data.xlsx
+++ b/src/diglo_data.xlsx
@@ -38,7 +38,7 @@
     <t>MainPhoto</t>
   </si>
   <si>
-    <t>Ciudad</t>
+    <t>Municipio</t>
   </si>
   <si>
     <t>Provincia</t>
@@ -24250,10 +24250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -24272,7 +24272,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24287,21 +24315,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24315,33 +24368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24355,18 +24384,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24385,35 +24414,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -24424,7 +24424,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24436,7 +24466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24448,13 +24478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24466,7 +24496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24478,43 +24514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24526,31 +24526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24568,13 +24550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24586,7 +24562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24598,13 +24586,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24634,6 +24634,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -24644,6 +24659,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -24665,10 +24700,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -24693,47 +24726,14 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -24751,130 +24751,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -25231,8 +25231,8 @@
   <sheetPr/>
   <dimension ref="A1:J1410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
